--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1502,28 +1502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.4979000106451</v>
+        <v>240.77190475465</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.336795695857</v>
+        <v>329.4347421919252</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.1172839663609</v>
+        <v>297.9939527617903</v>
       </c>
       <c r="AD2" t="n">
-        <v>162497.900010645</v>
+        <v>240771.90475465</v>
       </c>
       <c r="AE2" t="n">
-        <v>222336.795695857</v>
+        <v>329434.7421919252</v>
       </c>
       <c r="AF2" t="n">
         <v>1.063528139148868e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>201117.2839663609</v>
+        <v>297993.9527617903</v>
       </c>
     </row>
     <row r="3">
@@ -1608,28 +1608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.2481469411058</v>
+        <v>229.7004760258389</v>
       </c>
       <c r="AB3" t="n">
-        <v>220.6268284109001</v>
+        <v>314.2863249682101</v>
       </c>
       <c r="AC3" t="n">
-        <v>199.5705135591256</v>
+        <v>284.2912792169647</v>
       </c>
       <c r="AD3" t="n">
-        <v>161248.1469411058</v>
+        <v>229700.4760258389</v>
       </c>
       <c r="AE3" t="n">
-        <v>220626.8284109001</v>
+        <v>314286.3249682101</v>
       </c>
       <c r="AF3" t="n">
         <v>1.106090479588562e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.19270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>199570.5135591256</v>
+        <v>284291.2792169647</v>
       </c>
     </row>
   </sheetData>
@@ -1905,28 +1905,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.9477765060766</v>
+        <v>215.7116205568325</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.4286748107709</v>
+        <v>295.1461557707777</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.1091661973179</v>
+        <v>266.977820904333</v>
       </c>
       <c r="AD2" t="n">
-        <v>147947.7765060766</v>
+        <v>215711.6205568325</v>
       </c>
       <c r="AE2" t="n">
-        <v>202428.6748107709</v>
+        <v>295146.1557707777</v>
       </c>
       <c r="AF2" t="n">
         <v>1.262390300535638e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.59375</v>
       </c>
       <c r="AH2" t="n">
-        <v>183109.1661973179</v>
+        <v>266977.820904333</v>
       </c>
     </row>
   </sheetData>
@@ -2202,28 +2202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.0078681120203</v>
+        <v>217.4289204824006</v>
       </c>
       <c r="AB2" t="n">
-        <v>207.9838712646204</v>
+        <v>297.4958412908646</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.134182498381</v>
+        <v>269.1032557361879</v>
       </c>
       <c r="AD2" t="n">
-        <v>152007.8681120203</v>
+        <v>217428.9204824006</v>
       </c>
       <c r="AE2" t="n">
-        <v>207983.8712646204</v>
+        <v>297495.8412908646</v>
       </c>
       <c r="AF2" t="n">
         <v>1.679936317332647e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.27083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>188134.182498381</v>
+        <v>269103.2557361879</v>
       </c>
     </row>
   </sheetData>
@@ -2499,28 +2499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.7230612139916</v>
+        <v>220.51529140426</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.0164770837442</v>
+        <v>301.7187501472259</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.1180624287989</v>
+        <v>272.9231360981892</v>
       </c>
       <c r="AD2" t="n">
-        <v>144723.0612139916</v>
+        <v>220515.29140426</v>
       </c>
       <c r="AE2" t="n">
-        <v>198016.4770837442</v>
+        <v>301718.7501472259</v>
       </c>
       <c r="AF2" t="n">
         <v>1.49242369923302e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.90625</v>
       </c>
       <c r="AH2" t="n">
-        <v>179118.0624287989</v>
+        <v>272923.1360981892</v>
       </c>
     </row>
   </sheetData>
@@ -2796,28 +2796,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.8749281440989</v>
+        <v>224.6004760934147</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.7479298706987</v>
+        <v>307.3082800645531</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.8709344585497</v>
+        <v>277.979209125163</v>
       </c>
       <c r="AD2" t="n">
-        <v>159874.9281440989</v>
+        <v>224600.4760934147</v>
       </c>
       <c r="AE2" t="n">
-        <v>218747.9298706987</v>
+        <v>307308.2800645531</v>
       </c>
       <c r="AF2" t="n">
         <v>1.822580612870775e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.05208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>197870.9344585497</v>
+        <v>277979.209125163</v>
       </c>
     </row>
   </sheetData>
@@ -3093,28 +3093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.3272846558211</v>
+        <v>227.2224657399031</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.9986198897117</v>
+        <v>310.8958019728962</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.1931375704847</v>
+        <v>281.2243429776936</v>
       </c>
       <c r="AD2" t="n">
-        <v>159327.2846558211</v>
+        <v>227222.4657399031</v>
       </c>
       <c r="AE2" t="n">
-        <v>217998.6198897117</v>
+        <v>310895.8019728962</v>
       </c>
       <c r="AF2" t="n">
         <v>1.193810133047514e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.03645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>197193.1375704847</v>
+        <v>281224.3429776936</v>
       </c>
     </row>
     <row r="3">
@@ -3199,28 +3199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.2582307450639</v>
+        <v>226.8613294981153</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.2216961137132</v>
+        <v>310.4016794346759</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.7310640636292</v>
+        <v>280.7773788010155</v>
       </c>
       <c r="AD3" t="n">
-        <v>149258.2307450639</v>
+        <v>226861.3294981153</v>
       </c>
       <c r="AE3" t="n">
-        <v>204221.6961137132</v>
+        <v>310401.6794346759</v>
       </c>
       <c r="AF3" t="n">
         <v>1.206301025550588e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.88020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>184731.0640636292</v>
+        <v>280777.3788010155</v>
       </c>
     </row>
   </sheetData>
@@ -3496,28 +3496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.2973549416376</v>
+        <v>241.9346893722314</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.9576687343601</v>
+        <v>331.0257154041361</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.1560947359246</v>
+        <v>299.4330857235733</v>
       </c>
       <c r="AD2" t="n">
-        <v>159297.3549416376</v>
+        <v>241934.6893722314</v>
       </c>
       <c r="AE2" t="n">
-        <v>217957.6687343601</v>
+        <v>331025.7154041361</v>
       </c>
       <c r="AF2" t="n">
         <v>1.885331191218359e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>197156.0947359246</v>
+        <v>299433.0857235733</v>
       </c>
     </row>
   </sheetData>
@@ -3793,28 +3793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.7273827831926</v>
+        <v>213.8464892683431</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.7588782791507</v>
+        <v>292.5942008580826</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.5987327031009</v>
+        <v>264.6694209868135</v>
       </c>
       <c r="AD2" t="n">
-        <v>146727.3827831926</v>
+        <v>213846.4892683431</v>
       </c>
       <c r="AE2" t="n">
-        <v>200758.8782791507</v>
+        <v>292594.2008580826</v>
       </c>
       <c r="AF2" t="n">
         <v>1.354383427802216e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.77604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>181598.7327031009</v>
+        <v>264669.4209868135</v>
       </c>
     </row>
   </sheetData>
@@ -4090,28 +4090,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.1644021540307</v>
+        <v>225.3047947839076</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.7250715791507</v>
+        <v>308.2719599692328</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.3772752741191</v>
+        <v>278.8509167722736</v>
       </c>
       <c r="AD2" t="n">
-        <v>148164.4021540307</v>
+        <v>225304.7947839076</v>
       </c>
       <c r="AE2" t="n">
-        <v>202725.0715791507</v>
+        <v>308271.9599692328</v>
       </c>
       <c r="AF2" t="n">
         <v>1.264814078237754e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.93229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>183377.2752741191</v>
+        <v>278850.9167722736</v>
       </c>
     </row>
   </sheetData>
@@ -4387,28 +4387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.257738782143</v>
+        <v>229.530263811836</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.6399523909693</v>
+        <v>314.0534331077785</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.5823850049566</v>
+        <v>284.0806142288269</v>
       </c>
       <c r="AD2" t="n">
-        <v>161257.738782143</v>
+        <v>229530.263811836</v>
       </c>
       <c r="AE2" t="n">
-        <v>220639.9523909694</v>
+        <v>314053.4331077785</v>
       </c>
       <c r="AF2" t="n">
         <v>1.1098075582618e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.42708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>199582.3850049567</v>
+        <v>284080.6142288269</v>
       </c>
     </row>
     <row r="3">
@@ -4493,28 +4493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>160.7792062923329</v>
+        <v>229.0517313220259</v>
       </c>
       <c r="AB3" t="n">
-        <v>219.9852031270481</v>
+        <v>313.3986838438572</v>
       </c>
       <c r="AC3" t="n">
-        <v>198.9901240918375</v>
+        <v>283.4883533157077</v>
       </c>
       <c r="AD3" t="n">
-        <v>160779.2062923329</v>
+        <v>229051.7313220259</v>
       </c>
       <c r="AE3" t="n">
-        <v>219985.2031270481</v>
+        <v>313398.6838438572</v>
       </c>
       <c r="AF3" t="n">
         <v>1.128924773339249e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.19270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>198990.1240918375</v>
+        <v>283488.3533157077</v>
       </c>
     </row>
   </sheetData>
@@ -4790,28 +4790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.3371967171496</v>
+        <v>211.9753906415912</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.8567643729109</v>
+        <v>290.0340811699164</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.8781538784384</v>
+        <v>262.3536355285345</v>
       </c>
       <c r="AD2" t="n">
-        <v>145337.1967171496</v>
+        <v>211975.3906415912</v>
       </c>
       <c r="AE2" t="n">
-        <v>198856.7643729109</v>
+        <v>290034.0811699164</v>
       </c>
       <c r="AF2" t="n">
         <v>1.44909952362289e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.77604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>179878.1538784383</v>
+        <v>262353.6355285345</v>
       </c>
     </row>
   </sheetData>
@@ -5087,28 +5087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.7534602548908</v>
+        <v>218.4926740277131</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.0040233276991</v>
+        <v>298.9513158210547</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.0569726803522</v>
+        <v>270.4198218199885</v>
       </c>
       <c r="AD2" t="n">
-        <v>152753.4602548908</v>
+        <v>218492.6740277131</v>
       </c>
       <c r="AE2" t="n">
-        <v>209004.0233276991</v>
+        <v>298951.3158210547</v>
       </c>
       <c r="AF2" t="n">
         <v>1.61451317061263e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>189056.9726803522</v>
+        <v>270419.8218199885</v>
       </c>
     </row>
   </sheetData>
@@ -8013,28 +8013,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.3859421049913</v>
+        <v>225.7995160274279</v>
       </c>
       <c r="AB2" t="n">
-        <v>207.1329246643647</v>
+        <v>308.9488594001777</v>
       </c>
       <c r="AC2" t="n">
-        <v>187.3644490473424</v>
+        <v>279.4632138715638</v>
       </c>
       <c r="AD2" t="n">
-        <v>151385.9421049913</v>
+        <v>225799.5160274279</v>
       </c>
       <c r="AE2" t="n">
-        <v>207132.9246643647</v>
+        <v>308948.8594001777</v>
       </c>
       <c r="AF2" t="n">
         <v>1.739214059767707e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.66145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>187364.4490473424</v>
+        <v>279463.2138715638</v>
       </c>
     </row>
   </sheetData>
@@ -8310,28 +8310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.3550528982534</v>
+        <v>259.3130067414708</v>
       </c>
       <c r="AB2" t="n">
-        <v>242.6650077279985</v>
+        <v>354.8034959061383</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.5053999729861</v>
+        <v>320.9415482266898</v>
       </c>
       <c r="AD2" t="n">
-        <v>177355.0528982534</v>
+        <v>259313.0067414708</v>
       </c>
       <c r="AE2" t="n">
-        <v>242665.0077279985</v>
+        <v>354803.4959061383</v>
       </c>
       <c r="AF2" t="n">
         <v>1.927348890727024e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>219505.3999729861</v>
+        <v>320941.5482266898</v>
       </c>
     </row>
   </sheetData>
@@ -8607,28 +8607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.4416451333711</v>
+        <v>214.7846914788905</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.7361635376952</v>
+        <v>293.8778905131133</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.4827472281987</v>
+        <v>265.8305971028382</v>
       </c>
       <c r="AD2" t="n">
-        <v>147441.6451333711</v>
+        <v>214784.6914788905</v>
       </c>
       <c r="AE2" t="n">
-        <v>201736.1635376952</v>
+        <v>293877.8905131133</v>
       </c>
       <c r="AF2" t="n">
         <v>1.308796414051658e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.85416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>182482.7472281987</v>
+        <v>265830.5971028382</v>
       </c>
     </row>
   </sheetData>
@@ -8904,28 +8904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.140836799137</v>
+        <v>228.2278185421511</v>
       </c>
       <c r="AB2" t="n">
-        <v>219.1117578235835</v>
+        <v>312.2713700299666</v>
       </c>
       <c r="AC2" t="n">
-        <v>198.2000391822471</v>
+        <v>282.4686287500196</v>
       </c>
       <c r="AD2" t="n">
-        <v>160140.836799137</v>
+        <v>228227.8185421511</v>
       </c>
       <c r="AE2" t="n">
-        <v>219111.7578235835</v>
+        <v>312271.3700299666</v>
       </c>
       <c r="AF2" t="n">
         <v>1.155344051393843e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>198200.0391822471</v>
+        <v>282468.6287500196</v>
       </c>
     </row>
     <row r="3">
@@ -9010,28 +9010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>160.0670738722798</v>
+        <v>228.1540556152939</v>
       </c>
       <c r="AB3" t="n">
-        <v>219.0108321328668</v>
+        <v>312.1704443392499</v>
       </c>
       <c r="AC3" t="n">
-        <v>198.1087456978023</v>
+        <v>282.3773352655747</v>
       </c>
       <c r="AD3" t="n">
-        <v>160067.0738722798</v>
+        <v>228154.0556152939</v>
       </c>
       <c r="AE3" t="n">
-        <v>219010.8321328668</v>
+        <v>312170.4443392499</v>
       </c>
       <c r="AF3" t="n">
         <v>1.158953715477776e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>198108.7456978023</v>
+        <v>282377.3352655747</v>
       </c>
     </row>
   </sheetData>
@@ -9307,28 +9307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.2662688337718</v>
+        <v>313.4911465423979</v>
       </c>
       <c r="AB2" t="n">
-        <v>293.1685617788694</v>
+        <v>428.932416952605</v>
       </c>
       <c r="AC2" t="n">
-        <v>265.1889657074412</v>
+        <v>387.9957090890757</v>
       </c>
       <c r="AD2" t="n">
-        <v>214266.2688337718</v>
+        <v>313491.1465423979</v>
       </c>
       <c r="AE2" t="n">
-        <v>293168.5617788694</v>
+        <v>428932.416952605</v>
       </c>
       <c r="AF2" t="n">
         <v>1.87214152432854e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.22395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>265188.9657074412</v>
+        <v>387995.7090890757</v>
       </c>
     </row>
   </sheetData>
@@ -9604,28 +9604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.6172593650012</v>
+        <v>219.6516945808977</v>
       </c>
       <c r="AB2" t="n">
-        <v>210.1859113782789</v>
+        <v>300.537138874299</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.1260629941754</v>
+        <v>271.8542961467484</v>
       </c>
       <c r="AD2" t="n">
-        <v>153617.2593650013</v>
+        <v>219651.6945808977</v>
       </c>
       <c r="AE2" t="n">
-        <v>210185.9113782789</v>
+        <v>300537.1388742991</v>
       </c>
       <c r="AF2" t="n">
         <v>1.546995465340984e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.01041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>190126.0629941754</v>
+        <v>271854.2961467484</v>
       </c>
     </row>
   </sheetData>
@@ -9901,28 +9901,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.0310186759232</v>
+        <v>212.9156543197776</v>
       </c>
       <c r="AB2" t="n">
-        <v>199.8060821861689</v>
+        <v>291.3205914159163</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.7368701319753</v>
+        <v>263.5173630422851</v>
       </c>
       <c r="AD2" t="n">
-        <v>146031.0186759232</v>
+        <v>212915.6543197776</v>
       </c>
       <c r="AE2" t="n">
-        <v>199806.0821861689</v>
+        <v>291320.5914159163</v>
       </c>
       <c r="AF2" t="n">
         <v>1.398018283369342e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.80208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>180736.8701319753</v>
+        <v>263517.3630422851</v>
       </c>
     </row>
   </sheetData>
